--- a/data/frugivores.xlsx
+++ b/data/frugivores.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
   <si>
     <t>Orden</t>
   </si>
@@ -263,6 +263,15 @@
   </si>
   <si>
     <t>Interaction with Prosopis</t>
+  </si>
+  <si>
+    <t>Eudromia.elegans</t>
+  </si>
+  <si>
+    <t>Galictis.cuja</t>
+  </si>
+  <si>
+    <t>Leopardus.geoffroyi</t>
   </si>
 </sst>
 </file>
@@ -311,9 +320,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,16 +623,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="10" style="2" customWidth="1"/>
     <col min="8" max="8" width="6.28515625" customWidth="1"/>
     <col min="9" max="9" width="7.85546875" customWidth="1"/>
     <col min="10" max="10" width="4.7109375" customWidth="1"/>
@@ -643,7 +660,7 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H1" t="s">
@@ -681,8 +698,8 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1">
-        <v>400000</v>
+      <c r="G2" s="3">
+        <v>400</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>68</v>
@@ -719,8 +736,8 @@
       <c r="F3" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="1">
-        <v>250000</v>
+      <c r="G3" s="3">
+        <v>250</v>
       </c>
       <c r="H3" t="s">
         <v>67</v>
@@ -757,8 +774,8 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1">
-        <v>1000</v>
+      <c r="G4" s="3">
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>67</v>
@@ -795,8 +812,8 @@
       <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="1">
-        <v>2500</v>
+      <c r="G5" s="3">
+        <v>2.5</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>67</v>
@@ -833,8 +850,8 @@
       <c r="F6" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="1">
-        <v>160</v>
+      <c r="G6" s="3">
+        <v>0.16</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>67</v>
@@ -871,8 +888,8 @@
       <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="G7">
-        <v>62</v>
+      <c r="G7" s="3">
+        <v>0.62</v>
       </c>
       <c r="H7">
         <v>140</v>
@@ -912,8 +929,8 @@
       <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="G8">
-        <v>32</v>
+      <c r="G8" s="3">
+        <v>0.32</v>
       </c>
       <c r="H8">
         <v>136</v>
@@ -950,8 +967,8 @@
       <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="G9">
-        <v>13.5</v>
+      <c r="G9" s="3">
+        <v>0.14000000000000001</v>
       </c>
       <c r="H9">
         <v>77</v>
@@ -988,8 +1005,8 @@
       <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="G10">
-        <v>3000</v>
+      <c r="G10" s="3">
+        <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>67</v>
@@ -1026,8 +1043,8 @@
       <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="G11">
-        <v>300</v>
+      <c r="G11" s="3">
+        <v>0.3</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>67</v>
@@ -1064,8 +1081,8 @@
       <c r="F12" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="1">
-        <v>8000</v>
+      <c r="G12" s="3">
+        <v>8</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>67</v>
@@ -1102,8 +1119,8 @@
       <c r="F13" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="1">
-        <v>4150</v>
+      <c r="G13" s="3">
+        <v>4.1500000000000004</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>67</v>
@@ -1121,9 +1138,31 @@
         <v>46</v>
       </c>
     </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
